--- a/Notes/Planet Distances.xlsx
+++ b/Notes/Planet Distances.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E43173-2282-4FA1-9EAF-7310E2BFD43E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Antenna">Sheet1!$T$13</definedName>
+    <definedName name="DSN">Sheet1!$T$12</definedName>
+    <definedName name="Type">Sheet1!$T$14</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Mercury</t>
   </si>
@@ -96,14 +102,36 @@
   </si>
   <si>
     <t>Tm Far</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Effective Range</t>
+  </si>
+  <si>
+    <t>DSN</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>Avg2</t>
+  </si>
+  <si>
+    <t>CB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,12 +178,131 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -166,6 +313,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:P12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pe" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Avg" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ap" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Closest" dataDxfId="11">
+      <calculatedColumnFormula>B2-$R$5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Avg2" dataDxfId="10">
+      <calculatedColumnFormula>(E2+G2)/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Furthest" dataDxfId="9">
+      <calculatedColumnFormula>$R$5+D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="KM Close" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>E2*$R$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="KM Avg" dataDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula>F2*$R$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="KM Far" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>G2*$R$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gm Close" dataDxfId="5">
+      <calculatedColumnFormula>H2/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gm Avg" dataDxfId="4">
+      <calculatedColumnFormula>I2/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Gm Far" dataDxfId="3">
+      <calculatedColumnFormula>J2/1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Tm Close" dataDxfId="2">
+      <calculatedColumnFormula>H2/1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tm Avg" dataDxfId="1">
+      <calculatedColumnFormula>I2/1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tm Far" dataDxfId="0">
+      <calculatedColumnFormula>J2/1000000000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,724 +626,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.47E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.47E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" ref="H2" si="0">E2*$R$6</f>
+        <v>369512</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" ref="I2" si="1">F2*$R$6</f>
+        <v>384471.99999999994</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2" si="2">G2*$R$6</f>
+        <v>399432</v>
+      </c>
+      <c r="K2" s="10">
+        <f>H2/1000000</f>
+        <v>0.36951200000000001</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2" si="3">I2/1000000</f>
+        <v>0.38447199999999992</v>
+      </c>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2" si="4">J2/1000000</f>
+        <v>0.39943200000000001</v>
+      </c>
+      <c r="N2" s="10">
+        <f>H2/1000000000</f>
+        <v>3.6951200000000001E-4</v>
+      </c>
+      <c r="O2" s="10">
+        <f t="shared" ref="O2" si="5">I2/1000000000</f>
+        <v>3.8447199999999996E-4</v>
+      </c>
+      <c r="P2" s="10">
+        <f t="shared" ref="P2" si="6">J2/1000000000</f>
+        <v>3.9943200000000002E-4</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.307</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E2" s="1">
-        <f>$R$2-D2</f>
+      <c r="E3" s="1">
+        <f>$R$3-D3</f>
         <v>0.51400000000000001</v>
       </c>
-      <c r="F2" s="1">
-        <f>(E2+G2)/2</f>
+      <c r="F3" s="1">
+        <f>(E3+G3)/2</f>
         <v>0.995</v>
       </c>
-      <c r="G2" s="1">
-        <f>$R$4+D2</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" si="7">$R$5+D3</f>
         <v>1.476</v>
       </c>
-      <c r="H2" s="3">
-        <f>E2*$R$5</f>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H12" si="8">E3*$R$6</f>
         <v>76894400</v>
       </c>
-      <c r="I2" s="3">
-        <f>F2*$R$5</f>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I12" si="9">F3*$R$6</f>
         <v>148852000</v>
       </c>
-      <c r="J2" s="3">
-        <f>G2*$R$5</f>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J12" si="10">G3*$R$6</f>
         <v>220809600</v>
       </c>
-      <c r="K2" s="4">
-        <f>H2/1000000</f>
+      <c r="K3" s="10">
+        <f>H3/1000000</f>
         <v>76.894400000000005</v>
       </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:M2" si="0">I2/1000000</f>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:M3" si="11">I3/1000000</f>
         <v>148.852</v>
       </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
+      <c r="M3" s="10">
+        <f t="shared" si="11"/>
         <v>220.80959999999999</v>
       </c>
-      <c r="N2" s="4">
-        <f>H2/1000000000</f>
+      <c r="N3" s="10">
+        <f>H3/1000000000</f>
         <v>7.6894400000000002E-2</v>
       </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:P2" si="1">I2/1000000000</f>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:P3" si="12">I3/1000000000</f>
         <v>0.14885200000000001</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" si="1"/>
+      <c r="P3" s="10">
+        <f t="shared" si="12"/>
         <v>0.22080959999999999</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <f>$R$2-D3</f>
-        <v>0.252</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="2">(E3+G3)/2</f>
-        <v>0.995</v>
-      </c>
-      <c r="G3" s="1">
-        <f>$R$4+D3</f>
-        <v>1.738</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E3*$R$5</f>
-        <v>37699200</v>
-      </c>
-      <c r="I3" s="3">
-        <f>F3*$R$5</f>
-        <v>148852000</v>
-      </c>
-      <c r="J3" s="3">
-        <f>G3*$R$5</f>
-        <v>260004800</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K11" si="3">H3/1000000</f>
-        <v>37.699199999999998</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L11" si="4">I3/1000000</f>
-        <v>148.852</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M11" si="5">J3/1000000</f>
-        <v>260.00479999999999</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N11" si="6">H3/1000000000</f>
-        <v>3.7699200000000002E-2</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O11" si="7">I3/1000000000</f>
-        <v>0.14885200000000001</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P11" si="8">J3/1000000000</f>
-        <v>0.26000479999999998</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1.38</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>1.52</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>1.66</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E4" s="1">
-        <f>B4-$R$4</f>
-        <v>0.36999999999999988</v>
+        <f>$R$3-D4</f>
+        <v>0.252</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>1.52</v>
+        <f t="shared" ref="F4:F12" si="13">(E4+G4)/2</f>
+        <v>0.995</v>
       </c>
       <c r="G4" s="1">
-        <f>$R$4+D4</f>
-        <v>2.67</v>
-      </c>
-      <c r="H4" s="3">
-        <f>E4*$R$5</f>
-        <v>55351999.999999985</v>
-      </c>
-      <c r="I4" s="3">
-        <f>F4*$R$5</f>
-        <v>227392000</v>
-      </c>
-      <c r="J4" s="3">
-        <f>G4*$R$5</f>
-        <v>399432000</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="3"/>
-        <v>55.351999999999983</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="4"/>
-        <v>227.392</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="5"/>
-        <v>399.43200000000002</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="6"/>
-        <v>5.5351999999999985E-2</v>
-      </c>
-      <c r="O4" s="4">
         <f t="shared" si="7"/>
-        <v>0.22739200000000001</v>
-      </c>
-      <c r="P4" s="4">
+        <v>1.738</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" si="8"/>
-        <v>0.39943200000000001</v>
+        <v>37699200</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="9"/>
+        <v>148852000</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="10"/>
+        <v>260004800</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K12" si="14">H4/1000000</f>
+        <v>37.699199999999998</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L12" si="15">I4/1000000</f>
+        <v>148.852</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M12" si="16">J4/1000000</f>
+        <v>260.00479999999999</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N12" si="17">H4/1000000000</f>
+        <v>3.7699200000000002E-2</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O12" si="18">I4/1000000000</f>
+        <v>0.14885200000000001</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" ref="P4:P12" si="19">J4/1000000000</f>
+        <v>0.26000479999999998</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E12" si="20">B5-$R$5</f>
+        <v>0.36999999999999988</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="13"/>
+        <v>1.52</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="8"/>
+        <v>55351999.999999985</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="9"/>
+        <v>227392000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="10"/>
+        <v>399432000</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="14"/>
+        <v>55.351999999999983</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="15"/>
+        <v>227.392</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="16"/>
+        <v>399.43200000000002</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="17"/>
+        <v>5.5351999999999985E-2</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="18"/>
+        <v>0.22739200000000001</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="19"/>
+        <v>0.39943200000000001</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5">
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>2.153</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>2.3610000000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>2.5710000000000002</v>
       </c>
-      <c r="E5" s="1">
-        <f>B5-$R$4</f>
+      <c r="E6" s="1">
+        <f t="shared" si="20"/>
         <v>1.143</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
+      <c r="F6" s="1">
+        <f t="shared" si="13"/>
         <v>2.3620000000000001</v>
       </c>
-      <c r="G5" s="1">
-        <f>$R$4+D5</f>
+      <c r="G6" s="1">
+        <f t="shared" si="7"/>
         <v>3.5810000000000004</v>
       </c>
-      <c r="H5" s="3">
-        <f>E5*$R$5</f>
+      <c r="H6" s="9">
+        <f t="shared" si="8"/>
         <v>170992800</v>
       </c>
-      <c r="I5" s="3">
-        <f>F5*$R$5</f>
+      <c r="I6" s="9">
+        <f t="shared" si="9"/>
         <v>353355200</v>
       </c>
-      <c r="J5" s="3">
-        <f>G5*$R$5</f>
+      <c r="J6" s="9">
+        <f t="shared" si="10"/>
         <v>535717600.00000006</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" si="3"/>
+      <c r="K6" s="10">
+        <f t="shared" si="14"/>
         <v>170.99279999999999</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" si="4"/>
+      <c r="L6" s="10">
+        <f t="shared" si="15"/>
         <v>353.35520000000002</v>
       </c>
-      <c r="M5" s="4">
-        <f t="shared" si="5"/>
+      <c r="M6" s="10">
+        <f t="shared" si="16"/>
         <v>535.71760000000006</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" si="6"/>
+      <c r="N6" s="10">
+        <f t="shared" si="17"/>
         <v>0.1709928</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="10">
+        <f t="shared" si="18"/>
+        <v>0.35335519999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="19"/>
+        <v>0.53571760000000002</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2">
+        <v>149600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5479999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7675000000000001</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="7"/>
-        <v>0.35335519999999998</v>
-      </c>
-      <c r="P5" s="4">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="8"/>
-        <v>0.53571760000000002</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="2">
-        <v>149600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.7690000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.9769999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <f>B6-$R$4</f>
-        <v>1.5479999999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7675000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <f>$R$4+D6</f>
-        <v>3.9870000000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <f>E6*$R$5</f>
         <v>231580799.99999997</v>
       </c>
-      <c r="I6" s="3">
-        <f>F6*$R$5</f>
+      <c r="I7" s="9">
+        <f t="shared" si="9"/>
         <v>414018000</v>
       </c>
-      <c r="J6" s="3">
-        <f>G6*$R$5</f>
+      <c r="J7" s="9">
+        <f t="shared" si="10"/>
         <v>596455200</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="3"/>
+      <c r="K7" s="10">
+        <f t="shared" si="14"/>
         <v>231.58079999999998</v>
       </c>
-      <c r="L6" s="4">
-        <f t="shared" si="4"/>
+      <c r="L7" s="10">
+        <f t="shared" si="15"/>
         <v>414.01799999999997</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" si="5"/>
+      <c r="M7" s="10">
+        <f t="shared" si="16"/>
         <v>596.45519999999999</v>
       </c>
-      <c r="N6" s="4">
-        <f t="shared" si="6"/>
+      <c r="N7" s="10">
+        <f t="shared" si="17"/>
         <v>0.23158079999999998</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="10">
+        <f t="shared" si="18"/>
+        <v>0.414018</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="19"/>
+        <v>0.59645519999999996</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="20"/>
+        <v>3.9400000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="13"/>
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="7"/>
-        <v>0.414018</v>
-      </c>
-      <c r="P6" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="8"/>
-        <v>0.59645519999999996</v>
-      </c>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.46</v>
-      </c>
-      <c r="E7" s="1">
-        <f>B7-$R$4</f>
-        <v>3.9400000000000004</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2050000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <f>$R$4+D7</f>
-        <v>6.47</v>
-      </c>
-      <c r="H7" s="3">
-        <f>E7*$R$5</f>
         <v>589424000</v>
       </c>
-      <c r="I7" s="3">
-        <f>F7*$R$5</f>
+      <c r="I8" s="9">
+        <f t="shared" si="9"/>
         <v>778668000</v>
       </c>
-      <c r="J7" s="3">
-        <f>G7*$R$5</f>
+      <c r="J8" s="9">
+        <f t="shared" si="10"/>
         <v>967912000</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="3"/>
+      <c r="K8" s="10">
+        <f t="shared" si="14"/>
         <v>589.42399999999998</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" si="4"/>
+      <c r="L8" s="10">
+        <f t="shared" si="15"/>
         <v>778.66800000000001</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" si="5"/>
+      <c r="M8" s="10">
+        <f t="shared" si="16"/>
         <v>967.91200000000003</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" si="6"/>
+      <c r="N8" s="10">
+        <f t="shared" si="17"/>
         <v>0.58942399999999995</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="10">
+        <f t="shared" si="18"/>
+        <v>0.77866800000000003</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96791199999999999</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="20"/>
+        <v>8.0400000000000009</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="13"/>
+        <v>9.5850000000000009</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="7"/>
-        <v>0.77866800000000003</v>
-      </c>
-      <c r="P7" s="4">
+        <v>11.129999999999999</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="8"/>
-        <v>0.96791199999999999</v>
-      </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.58</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <f>B8-$R$4</f>
-        <v>8.0400000000000009</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5850000000000009</v>
-      </c>
-      <c r="G8" s="1">
-        <f>$R$4+D8</f>
-        <v>11.129999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <f>E8*$R$5</f>
         <v>1202784000.0000002</v>
       </c>
-      <c r="I8" s="3">
-        <f>F8*$R$5</f>
+      <c r="I9" s="9">
+        <f t="shared" si="9"/>
         <v>1433916000.0000002</v>
       </c>
-      <c r="J8" s="3">
-        <f>G8*$R$5</f>
+      <c r="J9" s="9">
+        <f t="shared" si="10"/>
         <v>1665047999.9999998</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="3"/>
+      <c r="K9" s="10">
+        <f t="shared" si="14"/>
         <v>1202.7840000000003</v>
       </c>
-      <c r="L8" s="4">
-        <f t="shared" si="4"/>
+      <c r="L9" s="10">
+        <f t="shared" si="15"/>
         <v>1433.9160000000002</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="5"/>
+      <c r="M9" s="10">
+        <f t="shared" si="16"/>
         <v>1665.0479999999998</v>
       </c>
-      <c r="N8" s="4">
-        <f t="shared" si="6"/>
+      <c r="N9" s="10">
+        <f t="shared" si="17"/>
         <v>1.2027840000000003</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="10">
+        <f t="shared" si="18"/>
+        <v>1.4339160000000002</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="19"/>
+        <v>1.6650479999999999</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="20"/>
+        <v>17.389999999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="13"/>
+        <v>19.25</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="7"/>
-        <v>1.4339160000000002</v>
-      </c>
-      <c r="P8" s="4">
+        <v>21.110000000000003</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="8"/>
-        <v>1.6650479999999999</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <f>B9-$R$4</f>
-        <v>17.389999999999997</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>19.25</v>
-      </c>
-      <c r="G9" s="1">
-        <f>$R$4+D9</f>
-        <v>21.110000000000003</v>
-      </c>
-      <c r="H9" s="3">
-        <f>E9*$R$5</f>
         <v>2601543999.9999995</v>
       </c>
-      <c r="I9" s="3">
-        <f>F9*$R$5</f>
+      <c r="I10" s="9">
+        <f t="shared" si="9"/>
         <v>2879800000</v>
       </c>
-      <c r="J9" s="3">
-        <f>G9*$R$5</f>
+      <c r="J10" s="9">
+        <f t="shared" si="10"/>
         <v>3158056000.0000005</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" si="3"/>
+      <c r="K10" s="10">
+        <f t="shared" si="14"/>
         <v>2601.5439999999994</v>
       </c>
-      <c r="L9" s="4">
-        <f t="shared" si="4"/>
+      <c r="L10" s="10">
+        <f t="shared" si="15"/>
         <v>2879.8</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="5"/>
+      <c r="M10" s="10">
+        <f t="shared" si="16"/>
         <v>3158.0560000000005</v>
       </c>
-      <c r="N9" s="4">
-        <f t="shared" si="6"/>
+      <c r="N10" s="10">
+        <f t="shared" si="17"/>
         <v>2.6015439999999996</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="10">
+        <f t="shared" si="18"/>
+        <v>2.8797999999999999</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="19"/>
+        <v>3.1580560000000006</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="20"/>
+        <v>28.79</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="13"/>
+        <v>30.1</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="7"/>
-        <v>2.8797999999999999</v>
-      </c>
-      <c r="P9" s="4">
+        <v>31.41</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="8"/>
-        <v>3.1580560000000006</v>
-      </c>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29.8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="E10" s="1">
-        <f>B10-$R$4</f>
-        <v>28.79</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>30.1</v>
-      </c>
-      <c r="G10" s="1">
-        <f>$R$4+D10</f>
-        <v>31.41</v>
-      </c>
-      <c r="H10" s="3">
-        <f>E10*$R$5</f>
         <v>4306984000</v>
       </c>
-      <c r="I10" s="3">
-        <f>F10*$R$5</f>
+      <c r="I11" s="9">
+        <f t="shared" si="9"/>
         <v>4502960000</v>
       </c>
-      <c r="J10" s="3">
-        <f>G10*$R$5</f>
+      <c r="J11" s="9">
+        <f t="shared" si="10"/>
         <v>4698936000</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
+      <c r="K11" s="10">
+        <f t="shared" si="14"/>
         <v>4306.9840000000004</v>
       </c>
-      <c r="L10" s="4">
-        <f t="shared" si="4"/>
+      <c r="L11" s="10">
+        <f t="shared" si="15"/>
         <v>4502.96</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
+      <c r="M11" s="10">
+        <f t="shared" si="16"/>
         <v>4698.9359999999997</v>
       </c>
-      <c r="N10" s="4">
-        <f t="shared" si="6"/>
+      <c r="N11" s="10">
+        <f t="shared" si="17"/>
         <v>4.3069839999999999</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="10">
+        <f t="shared" si="18"/>
+        <v>4.5029599999999999</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="19"/>
+        <v>4.6989359999999998</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="20"/>
+        <v>28.689999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="13"/>
+        <v>39.5</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="7"/>
-        <v>4.5029599999999999</v>
-      </c>
-      <c r="P10" s="4">
+        <v>50.309999999999995</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="8"/>
-        <v>4.6989359999999998</v>
-      </c>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>49.3</v>
-      </c>
-      <c r="E11" s="1">
-        <f>B11-$R$4</f>
-        <v>28.689999999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>39.5</v>
-      </c>
-      <c r="G11" s="1">
-        <f>$R$4+D11</f>
-        <v>50.309999999999995</v>
-      </c>
-      <c r="H11" s="3">
-        <f>E11*$R$5</f>
         <v>4292023999.9999995</v>
       </c>
-      <c r="I11" s="3">
-        <f>F11*$R$5</f>
+      <c r="I12" s="9">
+        <f t="shared" si="9"/>
         <v>5909200000</v>
       </c>
-      <c r="J11" s="3">
-        <f>G11*$R$5</f>
+      <c r="J12" s="9">
+        <f t="shared" si="10"/>
         <v>7526375999.999999</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="3"/>
+      <c r="K12" s="10">
+        <f t="shared" si="14"/>
         <v>4292.0239999999994</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" si="4"/>
+      <c r="L12" s="10">
+        <f t="shared" si="15"/>
         <v>5909.2</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="5"/>
+      <c r="M12" s="10">
+        <f t="shared" si="16"/>
         <v>7526.3759999999993</v>
       </c>
-      <c r="N11" s="4">
-        <f t="shared" si="6"/>
+      <c r="N12" s="10">
+        <f t="shared" si="17"/>
         <v>4.2920239999999996</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" si="7"/>
+      <c r="O12" s="10">
+        <f t="shared" si="18"/>
         <v>5.9092000000000002</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="8"/>
+      <c r="P12" s="10">
+        <f t="shared" si="19"/>
         <v>7.5263759999999991</v>
       </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+      <c r="T12" s="2">
+        <v>114000000000000</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="2"/>
+      <c r="T13" s="2">
+        <v>450000</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="6">
+        <f>MIN(MIN(DSN,Antenna)+SQRT(DSN*Antenna),IF(Type="Omni",Antenna*100,Antenna*1000))</f>
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="R16" s="6" t="str">
+        <f>IF(R15&gt;1000000000000000,R15/1000000000000000&amp;" Pm",IF(R15&gt;1000000000000,R15/1000000000000&amp;" Tm",IF(R15&gt;1000000000,R15/1000000000&amp;" Gm",R15/1000000&amp;" Mm")))</f>
+        <v>450 Mm</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="T18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="U18" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T20" s="2">
+        <f>T19*10</f>
+        <v>10000000</v>
+      </c>
+      <c r="U20" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T21" s="2">
+        <f t="shared" ref="T21:T30" si="21">T20*10</f>
+        <v>100000000</v>
+      </c>
+      <c r="U21" s="7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T22" s="2">
+        <f t="shared" si="21"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T23" s="2">
+        <f t="shared" si="21"/>
+        <v>10000000000</v>
+      </c>
+      <c r="U23" s="7">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T24" s="2">
+        <f t="shared" si="21"/>
+        <v>100000000000</v>
+      </c>
+      <c r="U24" s="7">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T25" s="2">
+        <f t="shared" si="21"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="U25" s="7">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T26" s="2">
+        <f t="shared" si="21"/>
+        <v>10000000000000</v>
+      </c>
+      <c r="U26" s="7">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T27" s="2">
+        <f t="shared" si="21"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="U27" s="7">
+        <v>100000000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T28" s="2">
+        <f t="shared" si="21"/>
+        <v>1000000000000000</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T29" s="2">
+        <f t="shared" si="21"/>
+        <v>1E+16</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1E+16</v>
+      </c>
+    </row>
+    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="T30" s="2">
+        <f t="shared" si="21"/>
+        <v>1E+17</v>
+      </c>
+      <c r="U30" s="7">
+        <v>1E+17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Notes/Planet Distances.xlsx
+++ b/Notes/Planet Distances.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E43173-2282-4FA1-9EAF-7310E2BFD43E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="DSN">Sheet1!$T$12</definedName>
     <definedName name="Type">Sheet1!$T$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Mercury</t>
   </si>
@@ -123,15 +122,21 @@
   </si>
   <si>
     <t>CB</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Flyby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +187,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,47 +321,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:P12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:P12"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pe" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Avg" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ap" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Closest" dataDxfId="11">
+    <tableColumn id="1" name="CB"/>
+    <tableColumn id="2" name="Pe" dataDxfId="14"/>
+    <tableColumn id="3" name="Avg" dataDxfId="13"/>
+    <tableColumn id="4" name="Ap" dataDxfId="12"/>
+    <tableColumn id="5" name="Closest" dataDxfId="11">
       <calculatedColumnFormula>B2-$R$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Avg2" dataDxfId="10">
+    <tableColumn id="6" name="Avg2" dataDxfId="10">
       <calculatedColumnFormula>(E2+G2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Furthest" dataDxfId="9">
+    <tableColumn id="7" name="Furthest" dataDxfId="9">
       <calculatedColumnFormula>$R$5+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="KM Close" dataDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="8" name="KM Close" dataDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>E2*$R$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="KM Avg" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="9" name="KM Avg" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>F2*$R$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="KM Far" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="10" name="KM Far" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>G2*$R$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gm Close" dataDxfId="5">
+    <tableColumn id="11" name="Gm Close" dataDxfId="5">
       <calculatedColumnFormula>H2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gm Avg" dataDxfId="4">
+    <tableColumn id="12" name="Gm Avg" dataDxfId="4">
       <calculatedColumnFormula>I2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Gm Far" dataDxfId="3">
+    <tableColumn id="13" name="Gm Far" dataDxfId="3">
       <calculatedColumnFormula>J2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Tm Close" dataDxfId="2">
+    <tableColumn id="14" name="Tm Close" dataDxfId="2">
       <calculatedColumnFormula>H2/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tm Avg" dataDxfId="1">
+    <tableColumn id="15" name="Tm Avg" dataDxfId="1">
       <calculatedColumnFormula>I2/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tm Far" dataDxfId="0">
+    <tableColumn id="16" name="Tm Far" dataDxfId="0">
       <calculatedColumnFormula>J2/1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -626,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1417,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R13" s="2"/>
       <c r="T13" s="2">
-        <v>450000</v>
+        <v>25000000000</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
@@ -1430,14 +1435,14 @@
       <c r="H15" s="3"/>
       <c r="R15" s="6">
         <f>MIN(MIN(DSN,Antenna)+SQRT(DSN*Antenna),IF(Type="Omni",Antenna*100,Antenna*1000))</f>
-        <v>450000000</v>
+        <v>1713194301613.4133</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="R16" s="6" t="str">
         <f>IF(R15&gt;1000000000000000,R15/1000000000000000&amp;" Pm",IF(R15&gt;1000000000000,R15/1000000000000&amp;" Tm",IF(R15&gt;1000000000,R15/1000000000&amp;" Gm",R15/1000000&amp;" Mm")))</f>
-        <v>450 Mm</v>
+        <v>1.71319430161341 Tm</v>
       </c>
       <c r="T16" s="2"/>
     </row>
@@ -1472,6 +1477,13 @@
       </c>
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>1550800</f>
+        <v>1550800</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
       <c r="T21" s="2">
         <f t="shared" ref="T21:T30" si="21">T20*10</f>
         <v>100000000</v>
@@ -1481,6 +1493,12 @@
       </c>
     </row>
     <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>9700000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
       <c r="T22" s="2">
         <f t="shared" si="21"/>
         <v>1000000000</v>
@@ -1490,6 +1508,10 @@
       </c>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f>L21*4</f>
+        <v>6203200</v>
+      </c>
       <c r="T23" s="2">
         <f t="shared" si="21"/>
         <v>10000000000</v>
@@ -1499,6 +1521,10 @@
       </c>
     </row>
     <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f>L23/1000</f>
+        <v>6203.2</v>
+      </c>
       <c r="T24" s="2">
         <f t="shared" si="21"/>
         <v>100000000000</v>

--- a/Notes/Planet Distances.xlsx
+++ b/Notes/Planet Distances.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\RealismOverhaul\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551AA0A-AA54-4777-9733-63C1590ABD8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Antenna">Sheet1!$T$13</definedName>
-    <definedName name="DSN">Sheet1!$T$12</definedName>
-    <definedName name="Type">Sheet1!$T$14</definedName>
+    <definedName name="Antenna">Sheet1!$U$13</definedName>
+    <definedName name="DSN">Sheet1!$X$12</definedName>
+    <definedName name="Type">Sheet1!$U$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Mercury</t>
   </si>
@@ -124,21 +130,61 @@
     <t>CB</t>
   </si>
   <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>Flyby</t>
+    <t>CommNet</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Gm</t>
+  </si>
+  <si>
+    <t>Mm</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>From m</t>
+  </si>
+  <si>
+    <t>From km</t>
+  </si>
+  <si>
+    <t>From Mm</t>
+  </si>
+  <si>
+    <t>Mm Close</t>
+  </si>
+  <si>
+    <t>Mm Avg</t>
+  </si>
+  <si>
+    <t>Mm Far</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +199,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,7 +245,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,12 +257,82 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -321,47 +449,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:P12"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="CB"/>
-    <tableColumn id="2" name="Pe" dataDxfId="14"/>
-    <tableColumn id="3" name="Avg" dataDxfId="13"/>
-    <tableColumn id="4" name="Ap" dataDxfId="12"/>
-    <tableColumn id="5" name="Closest" dataDxfId="11">
-      <calculatedColumnFormula>B2-$R$5</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S12" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:S12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pe" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Avg" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ap" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Closest" dataDxfId="14">
+      <calculatedColumnFormula>B2-$U$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Avg2" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Avg2" dataDxfId="13">
       <calculatedColumnFormula>(E2+G2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Furthest" dataDxfId="9">
-      <calculatedColumnFormula>$R$5+D2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Furthest" dataDxfId="12">
+      <calculatedColumnFormula>$U$5+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="KM Close" dataDxfId="8" dataCellStyle="Comma">
-      <calculatedColumnFormula>E2*$R$6</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="KM Close" dataDxfId="11" dataCellStyle="Comma">
+      <calculatedColumnFormula>E2*$U$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="KM Avg" dataDxfId="7" dataCellStyle="Comma">
-      <calculatedColumnFormula>F2*$R$6</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="KM Avg" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>F2*$U$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="KM Far" dataDxfId="6" dataCellStyle="Comma">
-      <calculatedColumnFormula>G2*$R$6</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="KM Far" dataDxfId="9" dataCellStyle="Comma">
+      <calculatedColumnFormula>G2*$U$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Gm Close" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{7E27FF1E-CD7F-4710-B015-8AEB3BDF9CCA}" name="Mm Close" dataDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[KM Close]]*0.001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{E55B00AA-66AD-482E-8CD1-F94BF56EA86A}" name="Mm Avg" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[KM Avg]]*0.001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{2ABC9BF4-F735-466D-9A80-216836E98694}" name="Mm Far" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[KM Far]]*0.001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gm Close" dataDxfId="8">
       <calculatedColumnFormula>H2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Gm Avg" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gm Avg" dataDxfId="7">
       <calculatedColumnFormula>I2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Gm Far" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Gm Far" dataDxfId="6">
       <calculatedColumnFormula>J2/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Tm Close" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Tm Close" dataDxfId="5">
       <calculatedColumnFormula>H2/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Tm Avg" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tm Avg" dataDxfId="4">
       <calculatedColumnFormula>I2/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Tm Far" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Tm Far" dataDxfId="3">
       <calculatedColumnFormula>J2/1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -631,29 +768,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -685,26 +828,35 @@
         <v>17</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -727,44 +879,56 @@
         <v>2.6700000000000001E-3</v>
       </c>
       <c r="H2" s="9">
-        <f t="shared" ref="H2" si="0">E2*$R$6</f>
+        <f>E2*$U$6</f>
         <v>369512</v>
       </c>
       <c r="I2" s="9">
-        <f t="shared" ref="I2" si="1">F2*$R$6</f>
+        <f>F2*$U$6</f>
         <v>384471.99999999994</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2" si="2">G2*$R$6</f>
+        <f>G2*$U$6</f>
         <v>399432</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>369.512</v>
+      </c>
+      <c r="L2" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>384.47199999999992</v>
+      </c>
+      <c r="M2" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>399.43200000000002</v>
+      </c>
+      <c r="N2" s="10">
         <f>H2/1000000</f>
         <v>0.36951200000000001</v>
       </c>
-      <c r="L2" s="10">
-        <f t="shared" ref="L2" si="3">I2/1000000</f>
+      <c r="O2" s="10">
+        <f>I2/1000000</f>
         <v>0.38447199999999992</v>
       </c>
-      <c r="M2" s="10">
-        <f t="shared" ref="M2" si="4">J2/1000000</f>
+      <c r="P2" s="10">
+        <f>J2/1000000</f>
         <v>0.39943200000000001</v>
       </c>
-      <c r="N2" s="10">
+      <c r="Q2" s="10">
         <f>H2/1000000000</f>
         <v>3.6951200000000001E-4</v>
       </c>
-      <c r="O2" s="10">
-        <f t="shared" ref="O2" si="5">I2/1000000000</f>
+      <c r="R2" s="10">
+        <f>I2/1000000000</f>
         <v>3.8447199999999996E-4</v>
       </c>
-      <c r="P2" s="10">
-        <f t="shared" ref="P2" si="6">J2/1000000000</f>
+      <c r="S2" s="10">
+        <f>J2/1000000000</f>
         <v>3.9943200000000002E-4</v>
       </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -778,7 +942,7 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f>$R$3-D3</f>
+        <f>$U$3-D3</f>
         <v>0.51400000000000001</v>
       </c>
       <c r="F3" s="1">
@@ -786,51 +950,63 @@
         <v>0.995</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" si="7">$R$5+D3</f>
+        <f>$U$5+D3</f>
         <v>1.476</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H12" si="8">E3*$R$6</f>
+        <f>E3*$U$6</f>
         <v>76894400</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I12" si="9">F3*$R$6</f>
+        <f>F3*$U$6</f>
         <v>148852000</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J12" si="10">G3*$R$6</f>
+        <f>G3*$U$6</f>
         <v>220809600</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>76894.400000000009</v>
+      </c>
+      <c r="L3" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>148852</v>
+      </c>
+      <c r="M3" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>220809.60000000001</v>
+      </c>
+      <c r="N3" s="10">
         <f>H3/1000000</f>
         <v>76.894400000000005</v>
       </c>
-      <c r="L3" s="10">
-        <f t="shared" ref="L3:M3" si="11">I3/1000000</f>
+      <c r="O3" s="10">
+        <f>I3/1000000</f>
         <v>148.852</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" si="11"/>
+      <c r="P3" s="10">
+        <f>J3/1000000</f>
         <v>220.80959999999999</v>
       </c>
-      <c r="N3" s="10">
+      <c r="Q3" s="10">
         <f>H3/1000000000</f>
         <v>7.6894400000000002E-2</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:P3" si="12">I3/1000000000</f>
+      <c r="R3" s="10">
+        <f>I3/1000000000</f>
         <v>0.14885200000000001</v>
       </c>
-      <c r="P3" s="10">
-        <f t="shared" si="12"/>
+      <c r="S3" s="10">
+        <f>J3/1000000000</f>
         <v>0.22080959999999999</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3">
+      <c r="T3" s="4"/>
+      <c r="U3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -844,59 +1020,71 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="E4" s="1">
-        <f>$R$3-D4</f>
+        <f>$U$3-D4</f>
         <v>0.252</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F12" si="13">(E4+G4)/2</f>
+        <f t="shared" ref="F4:F12" si="0">(E4+G4)/2</f>
         <v>0.995</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D4</f>
         <v>1.738</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="8"/>
+        <f>E4*$U$6</f>
         <v>37699200</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" si="9"/>
+        <f>F4*$U$6</f>
         <v>148852000</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" si="10"/>
+        <f>G4*$U$6</f>
         <v>260004800</v>
       </c>
-      <c r="K4" s="10">
-        <f t="shared" ref="K4:K12" si="14">H4/1000000</f>
+      <c r="K4" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>37699.200000000004</v>
+      </c>
+      <c r="L4" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>148852</v>
+      </c>
+      <c r="M4" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>260004.80000000002</v>
+      </c>
+      <c r="N4" s="10">
+        <f>H4/1000000</f>
         <v>37.699199999999998</v>
       </c>
-      <c r="L4" s="10">
-        <f t="shared" ref="L4:L12" si="15">I4/1000000</f>
+      <c r="O4" s="10">
+        <f>I4/1000000</f>
         <v>148.852</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" ref="M4:M12" si="16">J4/1000000</f>
+      <c r="P4" s="10">
+        <f>J4/1000000</f>
         <v>260.00479999999999</v>
       </c>
-      <c r="N4" s="10">
-        <f t="shared" ref="N4:N12" si="17">H4/1000000000</f>
+      <c r="Q4" s="10">
+        <f>H4/1000000000</f>
         <v>3.7699200000000002E-2</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" ref="O4:O12" si="18">I4/1000000000</f>
+      <c r="R4" s="10">
+        <f>I4/1000000000</f>
         <v>0.14885200000000001</v>
       </c>
-      <c r="P4" s="10">
-        <f t="shared" ref="P4:P12" si="19">J4/1000000000</f>
+      <c r="S4" s="10">
+        <f>J4/1000000000</f>
         <v>0.26000479999999998</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4">
+      <c r="T4" s="4"/>
+      <c r="U4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -910,59 +1098,71 @@
         <v>1.66</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E12" si="20">B5-$R$5</f>
+        <f>B5-$U$5</f>
         <v>0.36999999999999988</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D5</f>
         <v>2.67</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="8"/>
+        <f>E5*$U$6</f>
         <v>55351999.999999985</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="9"/>
+        <f>F5*$U$6</f>
         <v>227392000</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="10"/>
+        <f>G5*$U$6</f>
         <v>399432000</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" si="14"/>
+      <c r="K5" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>55351.999999999985</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>227392</v>
+      </c>
+      <c r="M5" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>399432</v>
+      </c>
+      <c r="N5" s="10">
+        <f>H5/1000000</f>
         <v>55.351999999999983</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" si="15"/>
+      <c r="O5" s="10">
+        <f>I5/1000000</f>
         <v>227.392</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="16"/>
+      <c r="P5" s="10">
+        <f>J5/1000000</f>
         <v>399.43200000000002</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q5" s="10">
+        <f>H5/1000000000</f>
         <v>5.5351999999999985E-2</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="18"/>
+      <c r="R5" s="10">
+        <f>I5/1000000000</f>
         <v>0.22739200000000001</v>
       </c>
-      <c r="P5" s="10">
-        <f t="shared" si="19"/>
+      <c r="S5" s="10">
+        <f>J5/1000000000</f>
         <v>0.39943200000000001</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5">
+      <c r="T5" s="4"/>
+      <c r="U5">
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -976,59 +1176,72 @@
         <v>2.5710000000000002</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="20"/>
+        <f>B6-$U$5</f>
         <v>1.143</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>2.3620000000000001</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D6</f>
         <v>3.5810000000000004</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="8"/>
+        <f>E6*$U$6</f>
         <v>170992800</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="9"/>
+        <f>F6*$U$6</f>
         <v>353355200</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="10"/>
+        <f>G6*$U$6</f>
         <v>535717600.00000006</v>
       </c>
-      <c r="K6" s="10">
-        <f t="shared" si="14"/>
+      <c r="K6" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>170992.80000000002</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>353355.2</v>
+      </c>
+      <c r="M6" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>535717.60000000009</v>
+      </c>
+      <c r="N6" s="10">
+        <f>H6/1000000</f>
         <v>170.99279999999999</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="15"/>
+      <c r="O6" s="10">
+        <f>I6/1000000</f>
         <v>353.35520000000002</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="16"/>
+      <c r="P6" s="10">
+        <f>J6/1000000</f>
         <v>535.71760000000006</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q6" s="10">
+        <f>H6/1000000000</f>
         <v>0.1709928</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="18"/>
+      <c r="R6" s="10">
+        <f>I6/1000000000</f>
         <v>0.35335519999999998</v>
       </c>
-      <c r="P6" s="10">
-        <f t="shared" si="19"/>
+      <c r="S6" s="10">
+        <f>J6/1000000000</f>
         <v>0.53571760000000002</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="2">
+      <c r="T6" s="4"/>
+      <c r="U6" s="2">
         <v>149600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1042,56 +1255,68 @@
         <v>2.9769999999999999</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="20"/>
+        <f>B7-$U$5</f>
         <v>1.5479999999999998</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>2.7675000000000001</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D7</f>
         <v>3.9870000000000001</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="8"/>
+        <f>E7*$U$6</f>
         <v>231580799.99999997</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="9"/>
+        <f>F7*$U$6</f>
         <v>414018000</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="10"/>
+        <f>G7*$U$6</f>
         <v>596455200</v>
       </c>
-      <c r="K7" s="10">
-        <f t="shared" si="14"/>
+      <c r="K7" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>231580.79999999999</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>414018</v>
+      </c>
+      <c r="M7" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>596455.20000000007</v>
+      </c>
+      <c r="N7" s="10">
+        <f>H7/1000000</f>
         <v>231.58079999999998</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="15"/>
+      <c r="O7" s="10">
+        <f>I7/1000000</f>
         <v>414.01799999999997</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="16"/>
+      <c r="P7" s="10">
+        <f>J7/1000000</f>
         <v>596.45519999999999</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q7" s="10">
+        <f>H7/1000000000</f>
         <v>0.23158079999999998</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" si="18"/>
+      <c r="R7" s="10">
+        <f>I7/1000000000</f>
         <v>0.414018</v>
       </c>
-      <c r="P7" s="10">
-        <f t="shared" si="19"/>
+      <c r="S7" s="10">
+        <f>J7/1000000000</f>
         <v>0.59645519999999996</v>
       </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1105,56 +1330,68 @@
         <v>5.46</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="20"/>
+        <f>B8-$U$5</f>
         <v>3.9400000000000004</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>5.2050000000000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D8</f>
         <v>6.47</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="8"/>
+        <f>E8*$U$6</f>
         <v>589424000</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="9"/>
+        <f>F8*$U$6</f>
         <v>778668000</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="10"/>
+        <f>G8*$U$6</f>
         <v>967912000</v>
       </c>
-      <c r="K8" s="10">
-        <f t="shared" si="14"/>
+      <c r="K8" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>589424</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>778668</v>
+      </c>
+      <c r="M8" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>967912</v>
+      </c>
+      <c r="N8" s="10">
+        <f>H8/1000000</f>
         <v>589.42399999999998</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="15"/>
+      <c r="O8" s="10">
+        <f>I8/1000000</f>
         <v>778.66800000000001</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="16"/>
+      <c r="P8" s="10">
+        <f>J8/1000000</f>
         <v>967.91200000000003</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q8" s="10">
+        <f>H8/1000000000</f>
         <v>0.58942399999999995</v>
       </c>
-      <c r="O8" s="10">
-        <f t="shared" si="18"/>
+      <c r="R8" s="10">
+        <f>I8/1000000000</f>
         <v>0.77866800000000003</v>
       </c>
-      <c r="P8" s="10">
-        <f t="shared" si="19"/>
+      <c r="S8" s="10">
+        <f>J8/1000000000</f>
         <v>0.96791199999999999</v>
       </c>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1168,57 +1405,70 @@
         <v>10.119999999999999</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="20"/>
+        <f>B9-$U$5</f>
         <v>8.0400000000000009</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>9.5850000000000009</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D9</f>
         <v>11.129999999999999</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="8"/>
+        <f>E9*$U$6</f>
         <v>1202784000.0000002</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="9"/>
+        <f>F9*$U$6</f>
         <v>1433916000.0000002</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="10"/>
+        <f>G9*$U$6</f>
         <v>1665047999.9999998</v>
       </c>
-      <c r="K9" s="10">
-        <f t="shared" si="14"/>
+      <c r="K9" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>1202784.0000000002</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>1433916.0000000002</v>
+      </c>
+      <c r="M9" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>1665047.9999999998</v>
+      </c>
+      <c r="N9" s="10">
+        <f>H9/1000000</f>
         <v>1202.7840000000003</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="15"/>
+      <c r="O9" s="10">
+        <f>I9/1000000</f>
         <v>1433.9160000000002</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="16"/>
+      <c r="P9" s="10">
+        <f>J9/1000000</f>
         <v>1665.0479999999998</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q9" s="10">
+        <f>H9/1000000000</f>
         <v>1.2027840000000003</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" si="18"/>
+      <c r="R9" s="10">
+        <f>I9/1000000000</f>
         <v>1.4339160000000002</v>
       </c>
-      <c r="P9" s="10">
-        <f t="shared" si="19"/>
+      <c r="S9" s="10">
+        <f>J9/1000000000</f>
         <v>1.6650479999999999</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1232,56 +1482,68 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="20"/>
+        <f>B10-$U$5</f>
         <v>17.389999999999997</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D10</f>
         <v>21.110000000000003</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="8"/>
+        <f>E10*$U$6</f>
         <v>2601543999.9999995</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="9"/>
+        <f>F10*$U$6</f>
         <v>2879800000</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="10"/>
+        <f>G10*$U$6</f>
         <v>3158056000.0000005</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" si="14"/>
+      <c r="K10" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>2601543.9999999995</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>2879800</v>
+      </c>
+      <c r="M10" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>3158056.0000000005</v>
+      </c>
+      <c r="N10" s="10">
+        <f>H10/1000000</f>
         <v>2601.5439999999994</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="15"/>
+      <c r="O10" s="10">
+        <f>I10/1000000</f>
         <v>2879.8</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="16"/>
+      <c r="P10" s="10">
+        <f>J10/1000000</f>
         <v>3158.0560000000005</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q10" s="10">
+        <f>H10/1000000000</f>
         <v>2.6015439999999996</v>
       </c>
-      <c r="O10" s="10">
-        <f t="shared" si="18"/>
+      <c r="R10" s="10">
+        <f>I10/1000000000</f>
         <v>2.8797999999999999</v>
       </c>
-      <c r="P10" s="10">
-        <f t="shared" si="19"/>
+      <c r="S10" s="10">
+        <f>J10/1000000000</f>
         <v>3.1580560000000006</v>
       </c>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1295,56 +1557,68 @@
         <v>30.4</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="20"/>
+        <f>B11-$U$5</f>
         <v>28.79</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>30.1</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D11</f>
         <v>31.41</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="8"/>
+        <f>E11*$U$6</f>
         <v>4306984000</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="9"/>
+        <f>F11*$U$6</f>
         <v>4502960000</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="10"/>
+        <f>G11*$U$6</f>
         <v>4698936000</v>
       </c>
-      <c r="K11" s="10">
-        <f t="shared" si="14"/>
+      <c r="K11" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>4306984</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>4502960</v>
+      </c>
+      <c r="M11" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>4698936</v>
+      </c>
+      <c r="N11" s="10">
+        <f>H11/1000000</f>
         <v>4306.9840000000004</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="15"/>
+      <c r="O11" s="10">
+        <f>I11/1000000</f>
         <v>4502.96</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="16"/>
+      <c r="P11" s="10">
+        <f>J11/1000000</f>
         <v>4698.9359999999997</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q11" s="10">
+        <f>H11/1000000000</f>
         <v>4.3069839999999999</v>
       </c>
-      <c r="O11" s="10">
-        <f t="shared" si="18"/>
+      <c r="R11" s="10">
+        <f>I11/1000000000</f>
         <v>4.5029599999999999</v>
       </c>
-      <c r="P11" s="10">
-        <f t="shared" si="19"/>
+      <c r="S11" s="10">
+        <f>J11/1000000000</f>
         <v>4.6989359999999998</v>
       </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1358,236 +1632,415 @@
         <v>49.3</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="20"/>
+        <f>B12-$U$5</f>
         <v>28.689999999999998</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="7"/>
+        <f>$U$5+D12</f>
         <v>50.309999999999995</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="8"/>
+        <f>E12*$U$6</f>
         <v>4292023999.9999995</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="9"/>
+        <f>F12*$U$6</f>
         <v>5909200000</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="10"/>
+        <f>G12*$U$6</f>
         <v>7526375999.999999</v>
       </c>
-      <c r="K12" s="10">
-        <f t="shared" si="14"/>
+      <c r="K12" s="9">
+        <f>Table1[[#This Row],[KM Close]]*0.001</f>
+        <v>4292024</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Table1[[#This Row],[KM Avg]]*0.001</f>
+        <v>5909200</v>
+      </c>
+      <c r="M12" s="9">
+        <f>Table1[[#This Row],[KM Far]]*0.001</f>
+        <v>7526375.9999999991</v>
+      </c>
+      <c r="N12" s="10">
+        <f>H12/1000000</f>
         <v>4292.0239999999994</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="15"/>
+      <c r="O12" s="10">
+        <f>I12/1000000</f>
         <v>5909.2</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="16"/>
+      <c r="P12" s="10">
+        <f>J12/1000000</f>
         <v>7526.3759999999993</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="17"/>
+      <c r="Q12" s="10">
+        <f>H12/1000000000</f>
         <v>4.2920239999999996</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" si="18"/>
+      <c r="R12" s="10">
+        <f>I12/1000000000</f>
         <v>5.9092000000000002</v>
       </c>
-      <c r="P12" s="10">
-        <f t="shared" si="19"/>
+      <c r="S12" s="10">
+        <f>J12/1000000000</f>
         <v>7.5263759999999991</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
-      <c r="T12" s="2">
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="X12" s="2">
         <v>114000000000000</v>
       </c>
-      <c r="U12" t="s">
+      <c r="Y12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R13" s="2"/>
-      <c r="T13" s="2">
+      <c r="S13" s="2"/>
+      <c r="U13" s="2">
         <v>25000000000</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="S14" s="2"/>
+      <c r="U14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="R15" s="6">
         <f>MIN(MIN(DSN,Antenna)+SQRT(DSN*Antenna),IF(Type="Omni",Antenna*100,Antenna*1000))</f>
         <v>1713194301613.4133</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="12">
+        <f>I20*1000000000000</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="J16" s="13">
+        <f>$J$20/$I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f>K$20/$I16</f>
+        <v>3.5768E-5</v>
+      </c>
+      <c r="L16" s="13">
+        <f>L$20/$I16</f>
+        <v>4.0311299999999997E-4</v>
+      </c>
       <c r="R16" s="6" t="str">
         <f>IF(R15&gt;1000000000000000,R15/1000000000000000&amp;" Pm",IF(R15&gt;1000000000000,R15/1000000000000&amp;" Tm",IF(R15&gt;1000000000,R15/1000000000&amp;" Gm",R15/1000000&amp;" Mm")))</f>
         <v>1.71319430161341 Tm</v>
       </c>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
+      <c r="S16" s="6" t="str">
+        <f>IF(S15&gt;1000000000000000,S15/1000000000000000&amp;" Pm",IF(S15&gt;1000000000000,S15/1000000000000&amp;" Tm",IF(S15&gt;1000000000,S15/1000000000&amp;" Gm",S15/1000000&amp;" Mm")))</f>
+        <v>0 Mm</v>
+      </c>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="12">
+        <f>I20*1000000000</f>
+        <v>1000000000</v>
+      </c>
+      <c r="J17" s="13">
+        <f>$J$20/$I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f>K$20/$I17</f>
+        <v>3.5768000000000001E-2</v>
+      </c>
+      <c r="L17" s="13">
+        <f>L$20/$I17</f>
+        <v>0.403113</v>
+      </c>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="T18" s="2">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="12">
+        <f>I20*1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="J18" s="10">
+        <f>$J$20/$I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f>K$20/$I18</f>
+        <v>35.768000000000001</v>
+      </c>
+      <c r="L18" s="14">
+        <v>403.113</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5</v>
+      </c>
+      <c r="U18" s="2">
         <v>100000</v>
       </c>
-      <c r="U18" s="7">
+      <c r="V18" s="7">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T19" s="2">
+    <row r="19" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="12">
+        <f>I20*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="J19" s="11">
+        <f>$J$20/$I19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>35768</v>
+      </c>
+      <c r="L19" s="1">
+        <f>L20/1000</f>
+        <v>403113</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1">
+        <v>65000</v>
+      </c>
+      <c r="R19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="2">
         <v>1000000</v>
       </c>
-      <c r="U19" s="7">
+      <c r="V19" s="7">
         <v>1000000</v>
       </c>
     </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T20" s="2">
-        <f>T19*10</f>
+    <row r="20" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="11">
+        <f>K19*1000</f>
+        <v>35768000</v>
+      </c>
+      <c r="L20" s="11">
+        <f>L18*1000000</f>
+        <v>403113000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="6">
+        <f>VLOOKUP(P18,Q20:R24,2,0)</f>
+        <v>2500000000000</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="11">
+        <v>5000000000</v>
+      </c>
+      <c r="S20" s="6">
+        <f>R20</f>
+        <v>5000000000</v>
+      </c>
+      <c r="U20" s="2">
+        <f>U19*10</f>
         <v>10000000</v>
       </c>
-      <c r="U20" s="7">
+      <c r="V20" s="7">
         <v>10000000</v>
       </c>
     </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="L21">
-        <f>1550800</f>
-        <v>1550800</v>
-      </c>
-      <c r="M21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" ref="T21:T30" si="21">T20*10</f>
+    <row r="21" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="1">
+        <f>SQRT(P19*P20)</f>
+        <v>403112887.41492748</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21" s="11">
+        <v>20000000000</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21:S24" si="1">R21</f>
+        <v>20000000000</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" ref="U21:U30" si="2">U20*10</f>
         <v>100000000</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V21" s="7">
         <v>100000000</v>
       </c>
     </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <v>9700000</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" si="21"/>
+    <row r="22" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="6" t="str">
+        <f>IF(P21&gt;1000000000000000,ROUND(P21/1000000000000000,3)&amp;" Pm",IF(P21&gt;1000000000000,ROUND(P21/1000000000000,3)&amp;" Tm",IF(P21&gt;1000000000,ROUND(P21/1000000000,3)&amp;" Gm",ROUND(P21/1000000,3)&amp;" Mm")))</f>
+        <v>403.113 Mm</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22" s="11">
+        <v>500000000000</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" si="1"/>
+        <v>500000000000</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="2"/>
         <v>1000000000</v>
       </c>
-      <c r="U22" s="7">
+      <c r="V22" s="7">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="L23">
-        <f>L21*4</f>
-        <v>6203200</v>
-      </c>
-      <c r="T23" s="2">
-        <f t="shared" si="21"/>
+    <row r="23" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1000000000000</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="U23" s="7">
+      <c r="V23" s="7">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="L24">
-        <f>L23/1000</f>
-        <v>6203.2</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" si="21"/>
+    <row r="24" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2500000000000</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="1"/>
+        <v>2500000000000</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="2"/>
         <v>100000000000</v>
       </c>
-      <c r="U24" s="7">
+      <c r="V24" s="7">
         <v>100000000000</v>
       </c>
     </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T25" s="2">
-        <f t="shared" si="21"/>
+    <row r="25" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U25" s="2">
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
-      <c r="U25" s="7">
+      <c r="V25" s="7">
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T26" s="2">
-        <f t="shared" si="21"/>
+    <row r="26" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U26" s="2">
+        <f t="shared" si="2"/>
         <v>10000000000000</v>
       </c>
-      <c r="U26" s="7">
+      <c r="V26" s="7">
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T27" s="2">
-        <f t="shared" si="21"/>
+    <row r="27" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U27" s="2">
+        <f t="shared" si="2"/>
         <v>100000000000000</v>
       </c>
-      <c r="U27" s="7">
+      <c r="V27" s="7">
         <v>100000000000000</v>
       </c>
     </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T28" s="2">
-        <f t="shared" si="21"/>
+    <row r="28" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U28" s="2">
+        <f t="shared" si="2"/>
         <v>1000000000000000</v>
       </c>
-      <c r="U28" s="7">
+      <c r="V28" s="7">
         <v>1000000000000000</v>
       </c>
     </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T29" s="2">
-        <f t="shared" si="21"/>
+    <row r="29" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U29" s="2">
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
-      <c r="U29" s="7">
+      <c r="V29" s="7">
         <v>1E+16</v>
       </c>
     </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="T30" s="2">
-        <f t="shared" si="21"/>
+    <row r="30" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U30" s="2">
+        <f t="shared" si="2"/>
         <v>1E+17</v>
       </c>
-      <c r="U30" s="7">
+      <c r="V30" s="7">
         <v>1E+17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">
